--- a/projects/puerto_rico_stoch/data/data_Y.xlsx
+++ b/projects/puerto_rico_stoch/data/data_Y.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952FE9D5-681B-4F64-8A02-F6D4F42BE33F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3772BCE4-453E-4359-8260-B40613AA5DE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" tabRatio="941" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="ReserveMargin" sheetId="13" r:id="rId15"/>
     <sheet name="capacityFactorTOD" sheetId="14" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="226">
   <si>
     <t>connection</t>
   </si>
@@ -713,6 +716,12 @@
   </si>
   <si>
     <t>[fr]</t>
+  </si>
+  <si>
+    <t>fuel2</t>
+  </si>
+  <si>
+    <t>Efficiency2</t>
   </si>
 </sst>
 </file>
@@ -1145,12 +1154,12 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1170,7 +1179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1190,7 +1199,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -1198,7 +1207,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -1206,7 +1215,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -1217,7 +1226,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -1225,7 +1234,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1236,7 +1245,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -1244,7 +1253,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -1252,7 +1261,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -1260,7 +1269,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -1274,7 +1283,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -1282,7 +1291,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -1290,7 +1299,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -1298,7 +1307,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -1306,7 +1315,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -1314,7 +1323,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>141</v>
       </c>
@@ -1322,7 +1331,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -1330,7 +1339,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -1338,7 +1347,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>144</v>
       </c>
@@ -1346,7 +1355,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -1354,7 +1363,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>171</v>
       </c>
@@ -1362,7 +1371,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -1370,7 +1379,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -1378,7 +1387,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>196</v>
       </c>
@@ -1386,7 +1395,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>220</v>
       </c>
@@ -1421,12 +1430,12 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1440,7 +1449,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1454,7 +1463,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
@@ -1472,24 +1481,25 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.23046875" style="29"/>
+    <col min="6" max="6" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -1503,22 +1513,25 @@
         <v>40</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>69</v>
       </c>
@@ -1532,22 +1545,25 @@
         <v>71</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -1560,19 +1576,19 @@
       <c r="D3" s="29">
         <v>34.799999999999997</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="6">
+      <c r="H3" s="9"/>
+      <c r="I3" s="6">
         <v>75</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -1585,17 +1601,17 @@
       <c r="D4" s="29">
         <v>29.9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="7">
+      <c r="H4" s="9"/>
+      <c r="I4" s="7">
         <v>50</v>
       </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -1608,17 +1624,17 @@
       <c r="D5" s="29">
         <v>40</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="7">
+      <c r="H5" s="9"/>
+      <c r="I5" s="7">
         <v>50</v>
       </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -1631,17 +1647,17 @@
       <c r="D6" s="29">
         <v>35.299999999999997</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="7">
+      <c r="H6" s="9"/>
+      <c r="I6" s="7">
         <v>55</v>
       </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -1654,17 +1670,17 @@
       <c r="D7" s="29">
         <v>34.6</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="7">
+      <c r="H7" s="9"/>
+      <c r="I7" s="7">
         <v>65</v>
       </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -1677,17 +1693,17 @@
       <c r="D8" s="29">
         <v>34.1</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="7">
+      <c r="H8" s="9"/>
+      <c r="I8" s="7">
         <v>65</v>
       </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -1700,19 +1716,19 @@
       <c r="D9" s="29">
         <v>36.799999999999997</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="6">
+      <c r="H9" s="9"/>
+      <c r="I9" s="6">
         <v>100</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
@@ -1725,19 +1741,19 @@
       <c r="D10" s="29">
         <v>19</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="6">
+      <c r="H10" s="9"/>
+      <c r="I10" s="6">
         <v>45</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
@@ -1750,19 +1766,19 @@
       <c r="D11" s="29">
         <v>45.5</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="6">
+      <c r="H11" s="9"/>
+      <c r="I11" s="6">
         <v>55</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
@@ -1775,19 +1791,19 @@
       <c r="D12" s="29">
         <v>36.799999999999997</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="6">
+      <c r="H12" s="9"/>
+      <c r="I12" s="6">
         <v>30</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
@@ -1800,19 +1816,19 @@
       <c r="D13" s="29">
         <v>36.799999999999997</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="6">
+      <c r="H13" s="9"/>
+      <c r="I13" s="6">
         <v>30</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
@@ -1823,19 +1839,20 @@
       <c r="D14" s="25">
         <v>85</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="22"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="22" t="s">
+        <v>196</v>
+      </c>
       <c r="G14" s="22"/>
-      <c r="H14" s="22">
+      <c r="H14" s="22"/>
+      <c r="I14" s="22">
         <v>15</v>
       </c>
-      <c r="I14" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
@@ -1848,19 +1865,20 @@
       <c r="D15" s="25">
         <v>25.3</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="22"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="22" t="s">
+        <v>196</v>
+      </c>
       <c r="G15" s="22"/>
-      <c r="H15" s="23">
+      <c r="H15" s="22"/>
+      <c r="I15" s="23">
         <v>45</v>
       </c>
-      <c r="I15" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
@@ -1873,19 +1891,20 @@
       <c r="D16" s="25">
         <v>38.799999999999997</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" s="22"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="22" t="s">
+        <v>196</v>
+      </c>
       <c r="G16" s="22"/>
-      <c r="H16" s="22">
+      <c r="H16" s="22"/>
+      <c r="I16" s="22">
         <v>75</v>
       </c>
-      <c r="I16" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
@@ -1898,19 +1917,20 @@
       <c r="D17" s="25">
         <v>51.7</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="22"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="22" t="s">
+        <v>196</v>
+      </c>
       <c r="G17" s="22"/>
-      <c r="H17" s="22">
+      <c r="H17" s="22"/>
+      <c r="I17" s="22">
         <v>55</v>
       </c>
-      <c r="I17" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
@@ -1923,19 +1943,20 @@
       <c r="D18" s="25">
         <v>51.7</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="22"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="22" t="s">
+        <v>196</v>
+      </c>
       <c r="G18" s="22"/>
-      <c r="H18" s="22">
+      <c r="H18" s="22"/>
+      <c r="I18" s="22">
         <v>55</v>
       </c>
-      <c r="I18" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
@@ -1948,19 +1969,20 @@
       <c r="D19" s="25">
         <v>62.12</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="22"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="G19" s="22"/>
-      <c r="H19" s="22">
+      <c r="H19" s="22"/>
+      <c r="I19" s="22">
         <v>55</v>
       </c>
-      <c r="I19" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
@@ -1973,19 +1995,20 @@
       <c r="D20" s="25">
         <v>42.34</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="22"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="G20" s="22"/>
-      <c r="H20" s="23">
+      <c r="H20" s="22"/>
+      <c r="I20" s="23">
         <v>55</v>
       </c>
-      <c r="I20" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
@@ -1998,19 +2021,20 @@
       <c r="D21" s="25">
         <v>36.799999999999997</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="25"/>
+      <c r="F21" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="22">
+      <c r="H21" s="22"/>
+      <c r="I21" s="22">
         <v>30</v>
       </c>
-      <c r="I21" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
@@ -2023,19 +2047,20 @@
       <c r="D22" s="25">
         <v>36.799999999999997</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="25"/>
+      <c r="F22" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="F22" s="22"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="22">
+      <c r="H22" s="22"/>
+      <c r="I22" s="22">
         <v>30</v>
       </c>
-      <c r="I22" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -2046,19 +2071,19 @@
       <c r="D23" s="29">
         <v>85</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="G23" s="9"/>
-      <c r="H23" s="9">
+      <c r="H23" s="9"/>
+      <c r="I23" s="9">
         <v>15</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -2071,19 +2096,19 @@
       <c r="D24" s="29">
         <v>25.3</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9">
+      <c r="F24" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9">
         <v>45</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
@@ -2096,19 +2121,19 @@
       <c r="D25" s="29">
         <v>54.17</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="6">
+      <c r="F25" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="6">
         <v>55</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
@@ -2121,19 +2146,19 @@
       <c r="D26" s="29">
         <v>37.11</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9">
+      <c r="F26" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9">
         <v>55</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -2146,19 +2171,19 @@
       <c r="D27" s="29">
         <v>36.799999999999997</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="F27" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9">
+      <c r="G27" s="6"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9">
         <v>30</v>
       </c>
-      <c r="I27" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -2171,15 +2196,15 @@
       <c r="D28" s="29">
         <v>36.799999999999997</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9">
+      <c r="G28" s="6"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9">
         <v>30</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="J28" s="9" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2197,18 +2222,18 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -2231,7 +2256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -2254,7 +2279,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -2273,7 +2298,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -2292,7 +2317,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -2311,7 +2336,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -2330,7 +2355,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -2349,7 +2374,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -2368,7 +2393,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -2391,7 +2416,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
@@ -2410,7 +2435,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
@@ -2429,7 +2454,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
@@ -2448,7 +2473,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
@@ -2467,7 +2492,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
@@ -2490,7 +2515,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
@@ -2513,7 +2538,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
@@ -2536,7 +2561,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
@@ -2557,7 +2582,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
@@ -2578,7 +2603,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
@@ -2601,7 +2626,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
@@ -2624,7 +2649,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
@@ -2647,7 +2672,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
@@ -2670,7 +2695,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -2693,7 +2718,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -2716,7 +2741,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
@@ -2739,7 +2764,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
@@ -2762,7 +2787,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -2785,7 +2810,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -2808,7 +2833,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F29" s="7"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -2828,18 +2853,18 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -2862,7 +2887,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -2885,7 +2910,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -2896,7 +2921,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -2907,7 +2932,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -2918,7 +2943,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -2929,7 +2954,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -2940,7 +2965,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -2951,7 +2976,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -2964,35 +2989,35 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
@@ -3003,7 +3028,7 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
@@ -3018,7 +3043,7 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
@@ -3033,7 +3058,7 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
@@ -3048,7 +3073,7 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
@@ -3063,7 +3088,7 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
@@ -3078,7 +3103,7 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
@@ -3089,7 +3114,7 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
@@ -3102,7 +3127,7 @@
       </c>
       <c r="G21" s="25"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
@@ -3115,13 +3140,13 @@
       </c>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
       <c r="F23" s="29"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -3133,7 +3158,7 @@
       </c>
       <c r="F24" s="29"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
@@ -3145,13 +3170,13 @@
       </c>
       <c r="F25" s="29"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
       <c r="F26" s="29"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -3159,7 +3184,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -3181,14 +3206,14 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -3202,7 +3227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -3216,7 +3241,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -3230,7 +3255,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -3244,7 +3269,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>107</v>
       </c>
@@ -3258,7 +3283,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>107</v>
       </c>
@@ -3272,7 +3297,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>108</v>
       </c>
@@ -3286,7 +3311,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>108</v>
       </c>
@@ -3300,7 +3325,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>108</v>
       </c>
@@ -3314,7 +3339,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>109</v>
       </c>
@@ -3328,7 +3353,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>110</v>
       </c>
@@ -3342,7 +3367,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>110</v>
       </c>
@@ -3356,7 +3381,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>110</v>
       </c>
@@ -3370,7 +3395,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>110</v>
       </c>
@@ -3384,7 +3409,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>111</v>
       </c>
@@ -3398,7 +3423,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>111</v>
       </c>
@@ -3412,7 +3437,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>111</v>
       </c>
@@ -3426,7 +3451,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>111</v>
       </c>
@@ -3440,7 +3465,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>111</v>
       </c>
@@ -3454,7 +3479,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>111</v>
       </c>
@@ -3468,7 +3493,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>112</v>
       </c>
@@ -3482,7 +3507,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>113</v>
       </c>
@@ -3496,7 +3521,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>114</v>
       </c>
@@ -3510,7 +3535,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>115</v>
       </c>
@@ -3524,7 +3549,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>115</v>
       </c>
@@ -3538,7 +3563,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>116</v>
       </c>
@@ -3566,14 +3591,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.3046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -3581,7 +3606,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -3589,7 +3614,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0.36215000000000003</v>
       </c>
@@ -3603,19 +3628,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -3632,7 +3657,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -3649,7 +3674,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>95</v>
       </c>
@@ -3666,7 +3691,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
@@ -3683,7 +3708,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>95</v>
       </c>
@@ -3700,7 +3725,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>95</v>
       </c>
@@ -3717,7 +3742,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>95</v>
       </c>
@@ -3734,7 +3759,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
@@ -3751,7 +3776,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>95</v>
       </c>
@@ -3768,7 +3793,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>95</v>
       </c>
@@ -3785,7 +3810,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>95</v>
       </c>
@@ -3802,7 +3827,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>95</v>
       </c>
@@ -3819,7 +3844,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>95</v>
       </c>
@@ -3836,7 +3861,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>95</v>
       </c>
@@ -3853,7 +3878,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>95</v>
       </c>
@@ -3870,7 +3895,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>95</v>
       </c>
@@ -3887,7 +3912,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>95</v>
       </c>
@@ -3904,7 +3929,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>95</v>
       </c>
@@ -3921,7 +3946,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>95</v>
       </c>
@@ -3938,7 +3963,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>95</v>
       </c>
@@ -3955,7 +3980,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>95</v>
       </c>
@@ -3972,7 +3997,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>95</v>
       </c>
@@ -3989,7 +4014,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
@@ -4006,7 +4031,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>95</v>
       </c>
@@ -4023,7 +4048,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>95</v>
       </c>
@@ -4040,7 +4065,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>95</v>
       </c>
@@ -4057,7 +4082,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>95</v>
       </c>
@@ -4074,7 +4099,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>95</v>
       </c>
@@ -4091,7 +4116,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>95</v>
       </c>
@@ -4108,7 +4133,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>95</v>
       </c>
@@ -4125,7 +4150,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>95</v>
       </c>
@@ -4142,7 +4167,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>95</v>
       </c>
@@ -4159,7 +4184,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>95</v>
       </c>
@@ -4176,7 +4201,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>95</v>
       </c>
@@ -4193,7 +4218,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>95</v>
       </c>
@@ -4210,7 +4235,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>95</v>
       </c>
@@ -4227,7 +4252,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>95</v>
       </c>
@@ -4244,7 +4269,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>95</v>
       </c>
@@ -4261,7 +4286,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>95</v>
       </c>
@@ -4278,7 +4303,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>95</v>
       </c>
@@ -4295,7 +4320,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>95</v>
       </c>
@@ -4312,7 +4337,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>95</v>
       </c>
@@ -4329,7 +4354,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
@@ -4346,7 +4371,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>95</v>
       </c>
@@ -4363,7 +4388,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>95</v>
       </c>
@@ -4380,7 +4405,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>95</v>
       </c>
@@ -4397,7 +4422,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>95</v>
       </c>
@@ -4414,7 +4439,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>95</v>
       </c>
@@ -4431,7 +4456,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>95</v>
       </c>
@@ -4448,7 +4473,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>95</v>
       </c>
@@ -4465,7 +4490,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>96</v>
       </c>
@@ -4482,7 +4507,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>96</v>
       </c>
@@ -4499,7 +4524,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>96</v>
       </c>
@@ -4516,7 +4541,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>96</v>
       </c>
@@ -4533,7 +4558,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>96</v>
       </c>
@@ -4550,7 +4575,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
         <v>96</v>
       </c>
@@ -4567,7 +4592,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
         <v>96</v>
       </c>
@@ -4584,7 +4609,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
         <v>96</v>
       </c>
@@ -4601,7 +4626,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>96</v>
       </c>
@@ -4618,7 +4643,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>96</v>
       </c>
@@ -4635,7 +4660,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>96</v>
       </c>
@@ -4652,7 +4677,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>96</v>
       </c>
@@ -4669,7 +4694,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>96</v>
       </c>
@@ -4686,7 +4711,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>96</v>
       </c>
@@ -4703,7 +4728,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>96</v>
       </c>
@@ -4720,7 +4745,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>96</v>
       </c>
@@ -4737,7 +4762,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>96</v>
       </c>
@@ -4754,7 +4779,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
         <v>96</v>
       </c>
@@ -4771,7 +4796,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
         <v>96</v>
       </c>
@@ -4788,7 +4813,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>96</v>
       </c>
@@ -4805,7 +4830,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
         <v>96</v>
       </c>
@@ -4822,7 +4847,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>96</v>
       </c>
@@ -4839,7 +4864,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>96</v>
       </c>
@@ -4856,7 +4881,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>96</v>
       </c>
@@ -4873,7 +4898,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>96</v>
       </c>
@@ -4890,7 +4915,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>96</v>
       </c>
@@ -4907,7 +4932,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>96</v>
       </c>
@@ -4924,7 +4949,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>96</v>
       </c>
@@ -4941,7 +4966,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>96</v>
       </c>
@@ -4958,7 +4983,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>96</v>
       </c>
@@ -4975,7 +5000,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>96</v>
       </c>
@@ -4992,7 +5017,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
         <v>96</v>
       </c>
@@ -5009,7 +5034,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>96</v>
       </c>
@@ -5026,7 +5051,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>96</v>
       </c>
@@ -5043,7 +5068,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>96</v>
       </c>
@@ -5060,7 +5085,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
         <v>96</v>
       </c>
@@ -5077,7 +5102,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
         <v>96</v>
       </c>
@@ -5094,7 +5119,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
         <v>96</v>
       </c>
@@ -5111,7 +5136,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
         <v>96</v>
       </c>
@@ -5128,7 +5153,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
         <v>96</v>
       </c>
@@ -5145,7 +5170,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
         <v>96</v>
       </c>
@@ -5162,7 +5187,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
         <v>96</v>
       </c>
@@ -5179,7 +5204,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
         <v>96</v>
       </c>
@@ -5196,7 +5221,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
         <v>96</v>
       </c>
@@ -5213,7 +5238,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
         <v>96</v>
       </c>
@@ -5230,7 +5255,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
         <v>96</v>
       </c>
@@ -5247,7 +5272,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
@@ -5264,7 +5289,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="3" t="s">
         <v>96</v>
       </c>
@@ -5293,13 +5318,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
@@ -5310,7 +5335,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -5321,7 +5346,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -5332,7 +5357,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -5356,13 +5381,13 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -5373,7 +5398,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -5384,7 +5409,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>185</v>
       </c>
@@ -5395,7 +5420,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -5406,7 +5431,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -5417,7 +5442,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -5428,7 +5453,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>189</v>
       </c>
@@ -5439,7 +5464,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>190</v>
       </c>
@@ -5450,7 +5475,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>191</v>
       </c>
@@ -5461,7 +5486,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>192</v>
       </c>
@@ -5472,7 +5497,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -5483,7 +5508,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -5494,7 +5519,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -5505,7 +5530,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -5516,7 +5541,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -5527,7 +5552,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -5538,7 +5563,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -5549,7 +5574,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -5560,7 +5585,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -5571,7 +5596,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -5582,7 +5607,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -5593,7 +5618,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -5604,7 +5629,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -5615,7 +5640,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -5626,7 +5651,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -5637,7 +5662,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -5662,19 +5687,19 @@
       <selection activeCell="A5" sqref="A5:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5709,7 +5734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -5744,7 +5769,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -5779,7 +5804,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -5810,7 +5835,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -5845,7 +5870,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -5880,7 +5905,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -5900,7 +5925,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -5935,7 +5960,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>200</v>
       </c>
@@ -5970,7 +5995,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -5993,7 +6018,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -6016,7 +6041,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>213</v>
       </c>
@@ -6039,7 +6064,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -6062,7 +6087,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -6099,13 +6124,13 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6119,7 +6144,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -6133,7 +6158,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -6147,7 +6172,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -6161,7 +6186,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -6175,7 +6200,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -6203,12 +6228,12 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -6222,7 +6247,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -6236,7 +6261,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -6250,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -6264,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -6278,7 +6303,7 @@
         <v>26.912000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2031</v>
       </c>
@@ -6292,7 +6317,7 @@
         <v>26.128</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2036</v>
       </c>
@@ -6306,7 +6331,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2041</v>
       </c>
@@ -6334,13 +6359,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>80</v>
       </c>
@@ -6348,7 +6373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -6356,7 +6381,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0.09</v>
       </c>
@@ -6377,21 +6402,21 @@
       <selection activeCell="D3" sqref="D3:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -6429,7 +6454,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -6467,7 +6492,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -6494,7 +6519,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -6526,7 +6551,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -6555,7 +6580,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -6570,7 +6595,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -6591,7 +6616,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -6620,7 +6645,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -6652,7 +6677,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -6666,7 +6691,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -6688,20 +6713,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3046875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -6709,28 +6735,31 @@
         <v>21</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>70</v>
       </c>
@@ -6741,7 +6770,7 @@
         <v>66</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>78</v>
@@ -6756,780 +6785,809 @@
         <v>78</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="F3" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>129</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="F4" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>129</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4">
         <v>0.91</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="F5" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>129</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5">
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="F6" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>129</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6">
         <v>0.91</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="F7" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>129</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7">
         <v>0.91</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="F8" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>129</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8">
         <v>0.91</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="F9" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="F10" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="F11" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>129</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11">
         <v>0.95</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="F12" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="F13" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.36</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="E14" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="F14" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="G14" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="H14" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="I14" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="E15" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="25" t="s">
         <v>130</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>130</v>
       </c>
       <c r="H15" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.95</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="F16" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>129</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16">
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="F17" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>129</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17">
         <v>0.95</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="F18" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>129</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18">
         <v>0.95</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="E19" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="F19" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="G19" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>129</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19">
         <v>0.95</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="E20" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="F20" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="G20" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>129</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20">
         <v>0.91</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="E21" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="25" t="s">
         <v>130</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>130</v>
       </c>
       <c r="H21" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="E22" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="25" t="s">
         <v>130</v>
       </c>
       <c r="G22" s="22" t="s">
         <v>130</v>
       </c>
       <c r="H22" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.36</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="F23" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="I23" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.75</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="29" t="s">
         <v>130</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>130</v>
       </c>
       <c r="H24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.95</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="F25" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J25">
         <v>0.95</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="F26" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J26">
         <v>0.95</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E27" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="29" t="s">
         <v>130</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>130</v>
       </c>
       <c r="H27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E28" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="29" t="s">
         <v>130</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>130</v>
       </c>
       <c r="H28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.36</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:D15 D19:D28 F19:H28 F3:H15">
+  <conditionalFormatting sqref="E3:E15 E19:E28 G19:I28 G3:I15">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D18 F16:H18">
+  <conditionalFormatting sqref="E16:E18 G16:I18">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E15 E19:E28">
+  <conditionalFormatting sqref="F3:F15 F19:F28">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E18">
+  <conditionalFormatting sqref="F16:F18">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
